--- a/data/trans_dic/P33B_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R2-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08887647719471251</v>
+        <v>0.09080420151515174</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1239647458263658</v>
+        <v>0.123596440825928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1116167182034297</v>
+        <v>0.1118403455291569</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1448008248987621</v>
+        <v>0.1469772827592022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1776618101060229</v>
+        <v>0.1753119008367233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1490693893810145</v>
+        <v>0.1491800462427156</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09010697976684692</v>
+        <v>0.09351603994497856</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.155204016331829</v>
+        <v>0.1570986953958192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1302749957079292</v>
+        <v>0.1306381405581583</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1469111276026361</v>
+        <v>0.1497660819658632</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2193560920693102</v>
+        <v>0.2212473673226271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1718743514891477</v>
+        <v>0.1722734008155087</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1510650835989715</v>
+        <v>0.1477036105057325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2169765775400385</v>
+        <v>0.2154979143637628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1738484910889251</v>
+        <v>0.1761846242840792</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2199766163487869</v>
+        <v>0.2175669116607115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3236295913410608</v>
+        <v>0.3212265746682027</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2336315271262612</v>
+        <v>0.2379223060893375</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1398085116643874</v>
+        <v>0.1424655834672429</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1883704171034176</v>
+        <v>0.1874163590325352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1675625873644664</v>
+        <v>0.1679786868155939</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1831530950168207</v>
+        <v>0.1846187443277297</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2339297039964882</v>
+        <v>0.2339565031948424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1994205176953266</v>
+        <v>0.2008499519568463</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1496966717706895</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2950831985877711</v>
+        <v>0.295083198587771</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.236087895880824</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1203681325682389</v>
+        <v>0.120377308509958</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2685665270652361</v>
+        <v>0.2682191323936824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2160562458682515</v>
+        <v>0.2148445678163235</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1834471394485741</v>
+        <v>0.1858086913472429</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3216300194441812</v>
+        <v>0.3207080742128052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2554920720265477</v>
+        <v>0.2561256662396455</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01938607371593462</v>
+        <v>0.01953136993847406</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2094760774525171</v>
+        <v>0.2105221177859043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.171494656754818</v>
+        <v>0.1720978509652821</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1154133953904459</v>
+        <v>0.1089490528354581</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.260460908030602</v>
+        <v>0.2580348311835534</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2176576898239783</v>
+        <v>0.2203116650432213</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1301058398768632</v>
+        <v>0.1295125034669226</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2164636600364476</v>
+        <v>0.2154362354042218</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1771665919928186</v>
+        <v>0.1769689831392752</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1537292840392257</v>
+        <v>0.1546714124444759</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2397444817798565</v>
+        <v>0.2386027928734196</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1941403120961104</v>
+        <v>0.1941746436374738</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>48937</v>
+        <v>49998</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60546</v>
+        <v>60366</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>115973</v>
+        <v>116205</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>79730</v>
+        <v>80928</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86772</v>
+        <v>85624</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>154887</v>
+        <v>155002</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>43541</v>
+        <v>45188</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>65673</v>
+        <v>66475</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>118075</v>
+        <v>118405</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70989</v>
+        <v>72369</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92819</v>
+        <v>93619</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>155779</v>
+        <v>156141</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>71244</v>
+        <v>69659</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>40682</v>
+        <v>40405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>114585</v>
+        <v>116125</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>103744</v>
+        <v>102607</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60680</v>
+        <v>60229</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>153989</v>
+        <v>156817</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>158241</v>
+        <v>161249</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>162227</v>
+        <v>161405</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>333961</v>
+        <v>334791</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>207301</v>
+        <v>208959</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>201463</v>
+        <v>201486</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>397456</v>
+        <v>400305</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>68235</v>
+        <v>68240</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>222944</v>
+        <v>222656</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>301833</v>
+        <v>300140</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103993</v>
+        <v>105332</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>266994</v>
+        <v>266228</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>356925</v>
+        <v>357810</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4599</v>
+        <v>4633</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>176857</v>
+        <v>177740</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>185473</v>
+        <v>186125</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>27379</v>
+        <v>25846</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>219902</v>
+        <v>217854</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>235399</v>
+        <v>238269</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>447745</v>
+        <v>445704</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>786774</v>
+        <v>783040</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1253642</v>
+        <v>1252244</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>529043</v>
+        <v>532285</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>871392</v>
+        <v>867242</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1373749</v>
+        <v>1373992</v>
       </c>
     </row>
     <row r="32">
